--- a/Project2_DataDictionary.xlsx
+++ b/Project2_DataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatch\Desktop\dsirfx-222\projects\project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC08F24C-E17D-4008-9B52-40B04F8EC4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123698F5-31B9-4AFC-AADC-CD8120D1219E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="5" xr2:uid="{E76D819D-9471-4159-A18C-0D1E2E4616A4}"/>
+    <workbookView xWindow="-13395" yWindow="1530" windowWidth="10800" windowHeight="13605" firstSheet="3" activeTab="6" xr2:uid="{E76D819D-9471-4159-A18C-0D1E2E4616A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Dict" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Old" sheetId="5" r:id="rId4"/>
     <sheet name="List" sheetId="3" r:id="rId5"/>
     <sheet name="Final" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="black_pop" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="527">
   <si>
     <t>MSSubClass: The building class</t>
   </si>
@@ -1617,6 +1618,12 @@
   </si>
   <si>
     <t>DATA DICT</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>% Population</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1737,6 +1744,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1857,31 +1868,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1903,6 +1889,31 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1917,25 +1928,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CEEA4C8-B47B-41D4-8C99-B70C949BE407}" name="Table1" displayName="Table1" ref="A1:B29" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CEEA4C8-B47B-41D4-8C99-B70C949BE407}" name="Table1" displayName="Table1" ref="A1:B29" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:B29" xr:uid="{0CEEA4C8-B47B-41D4-8C99-B70C949BE407}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B29">
     <sortCondition ref="B1:B29"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{83B26F02-FB7C-468E-A117-41B9532A77F8}" name="Neighborhood" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{3E8A0B55-6263-4E1E-94E1-C58C31CC5EF3}" name="Census Tract" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{83B26F02-FB7C-468E-A117-41B9532A77F8}" name="Neighborhood" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{3E8A0B55-6263-4E1E-94E1-C58C31CC5EF3}" name="Census Tract" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9930F283-6DF1-48D6-9955-5EAA12F041F4}" name="Table3" displayName="Table3" ref="H2:M30" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9930F283-6DF1-48D6-9955-5EAA12F041F4}" name="Table3" displayName="Table3" ref="H2:M30" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="H2:M30" xr:uid="{9930F283-6DF1-48D6-9955-5EAA12F041F4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0399D313-CB80-44E1-9787-07D0F2404327}" name="Column1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{3AE688C6-7E0A-4C45-A41E-CB09E3B67E04}" name="Column2" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{0399D313-CB80-44E1-9787-07D0F2404327}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3AE688C6-7E0A-4C45-A41E-CB09E3B67E04}" name="Column2" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{D47FCCD0-830C-4EB8-83F8-419758BAAAE7}" name="Column3" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{1B553834-85E0-4276-8874-DD378DCD9FC2}" name="Column4" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{8F471A72-A4D2-4E3F-87CA-919E23065BD9}" name="Column5" dataDxfId="1"/>
@@ -5043,8 +5054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A07863-97D0-4D38-826A-6ECD8A900BFC}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5499,6 +5510,501 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE71AF2-9755-455B-8DE2-50FB5DFB4A63}">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2">
+        <v>1.02</v>
+      </c>
+      <c r="C2">
+        <v>2.4</v>
+      </c>
+      <c r="E2">
+        <v>1.02</v>
+      </c>
+      <c r="F2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" s="20">
+        <v>11.01</v>
+      </c>
+      <c r="C3">
+        <v>3.2</v>
+      </c>
+      <c r="E3">
+        <v>1.05</v>
+      </c>
+      <c r="F3" t="s">
+        <v>525</v>
+      </c>
+      <c r="G3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="J4" s="20">
+        <v>8</v>
+      </c>
+      <c r="K4" s="20">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5" s="20">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>525</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="20">
+        <v>7</v>
+      </c>
+      <c r="C6" s="20">
+        <v>3.8</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>525</v>
+      </c>
+      <c r="G6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="B7" s="20">
+        <v>13.03</v>
+      </c>
+      <c r="C7">
+        <v>6.1</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G7">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="B8" s="20">
+        <v>11.01</v>
+      </c>
+      <c r="C8">
+        <v>3.2</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>525</v>
+      </c>
+      <c r="G8">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="B9" s="20">
+        <v>13.04</v>
+      </c>
+      <c r="C9">
+        <v>8.9</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>525</v>
+      </c>
+      <c r="G9">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>2.4</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>525</v>
+      </c>
+      <c r="G10">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" s="20">
+        <v>5</v>
+      </c>
+      <c r="C11" s="20">
+        <v>8.4</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>525</v>
+      </c>
+      <c r="G11">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12" s="20">
+        <v>13.02</v>
+      </c>
+      <c r="C12">
+        <v>4.2</v>
+      </c>
+      <c r="E12">
+        <v>11.01</v>
+      </c>
+      <c r="F12" t="s">
+        <v>525</v>
+      </c>
+      <c r="G12">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="B13" s="20">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>8.9</v>
+      </c>
+      <c r="E13">
+        <v>11.02</v>
+      </c>
+      <c r="F13" t="s">
+        <v>525</v>
+      </c>
+      <c r="G13">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="B14" s="20">
+        <v>5</v>
+      </c>
+      <c r="C14" s="20">
+        <v>8.4</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>525</v>
+      </c>
+      <c r="G14">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" s="20">
+        <v>13.02</v>
+      </c>
+      <c r="C15">
+        <v>4.2</v>
+      </c>
+      <c r="E15">
+        <v>13.02</v>
+      </c>
+      <c r="F15" t="s">
+        <v>525</v>
+      </c>
+      <c r="G15">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="B16" s="20">
+        <v>13.02</v>
+      </c>
+      <c r="C16">
+        <v>4.2</v>
+      </c>
+      <c r="E16">
+        <v>13.03</v>
+      </c>
+      <c r="F16" t="s">
+        <v>525</v>
+      </c>
+      <c r="G16">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B17" s="20">
+        <v>4</v>
+      </c>
+      <c r="C17" s="20">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>13.04</v>
+      </c>
+      <c r="F17" t="s">
+        <v>525</v>
+      </c>
+      <c r="G17">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="C20">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="B22" s="20">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="B23" s="20">
+        <v>6</v>
+      </c>
+      <c r="C23" s="20">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="B24" s="20">
+        <v>6</v>
+      </c>
+      <c r="C24" s="20">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B26">
+        <v>1.02</v>
+      </c>
+      <c r="C26">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="B27" s="20">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="B28" s="20">
+        <v>13.02</v>
+      </c>
+      <c r="C28">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B29" s="20">
+        <v>6</v>
+      </c>
+      <c r="C29" s="20">
+        <v>6.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C30">
+    <sortCondition ref="A2:A30"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE22D855-D96B-4E9C-85E6-885716F27A6B}">
   <dimension ref="A1:M30"/>
   <sheetViews>
